--- a/biology/Médecine/1772_en_santé_et_médecine/1772_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1772_en_santé_et_médecine/1772_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1772_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1772_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1772 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1772_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1772_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>25 avril : en France, Déclaration du Roi portant établissement d'une Commission royale de médecine pour l'examen des remèdes particuliers et la distribution des eaux minérales enregistrée en Parlement le 28 août 1772[1].
-Nicolas Saucerotte présente devant l'Académie de Chirurgie un « Accroissement singulier en grosseur des os d'un homme âgé de 39 ans » qui sera publié en 1801, et qui concerne le premier cas connu d'acromégalie[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>25 avril : en France, Déclaration du Roi portant établissement d'une Commission royale de médecine pour l'examen des remèdes particuliers et la distribution des eaux minérales enregistrée en Parlement le 28 août 1772.
+Nicolas Saucerotte présente devant l'Académie de Chirurgie un « Accroissement singulier en grosseur des os d'un homme âgé de 39 ans » qui sera publié en 1801, et qui concerne le premier cas connu d'acromégalie.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1772_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1772_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Kawaguchi Shinnin (1736-1811) : Kaishi Hen (Analyse des cadavres), atlas anatomique à l'aube de la médecine expérimentale au Japon, publié à Kyoto, gravures sur bois d'Aoki Shukuya (mort en 1802)[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Kawaguchi Shinnin (1736-1811) : Kaishi Hen (Analyse des cadavres), atlas anatomique à l'aube de la médecine expérimentale au Japon, publié à Kyoto, gravures sur bois d'Aoki Shukuya (mort en 1802).</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1772_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1772_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,15 +588,17 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4 janvier : Jean-Étienne Esquirol (mort en 1840), psychiatre français[4].
-4 avril : Augustin Jacob Landré-Beauvais (mort en 1840), chirurgien français[5].
-30 avril : Karl Gustav Himly (mort en 1837), chirurgien et ophtalmologue allemand[6].
-3 juin : Jacques Philippe Raymond Draparnaud (mort en 1804), naturaliste, malacologiste et botaniste français, professeur de médecine en pathologie et nosologie à la Faculté de Médecine de Montpellier[7].
-22 novembre : Pierre Amable Jean-Baptiste Trannoy (mort en 1831), botaniste, médecin et hygiéniste français[8],[9].
-14 décembre : François Broussais (mort en 1838), chirurgien français[10].
-15 décembre : Valeriano Luigi Brera (mort en 1840), médecin et pathologiste italien, professeur de médecine aux universités de Pavie, Padoue et Bologne[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4 janvier : Jean-Étienne Esquirol (mort en 1840), psychiatre français.
+4 avril : Augustin Jacob Landré-Beauvais (mort en 1840), chirurgien français.
+30 avril : Karl Gustav Himly (mort en 1837), chirurgien et ophtalmologue allemand.
+3 juin : Jacques Philippe Raymond Draparnaud (mort en 1804), naturaliste, malacologiste et botaniste français, professeur de médecine en pathologie et nosologie à la Faculté de Médecine de Montpellier.
+22 novembre : Pierre Amable Jean-Baptiste Trannoy (mort en 1831), botaniste, médecin et hygiéniste français,.
+14 décembre : François Broussais (mort en 1838), chirurgien français.
+15 décembre : Valeriano Luigi Brera (mort en 1840), médecin et pathologiste italien, professeur de médecine aux universités de Pavie, Padoue et Bologne.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1772_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1772_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,12 +626,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3 janvier : Antoine Le Camus (né en 1722), philosophe, médecin, auteur et journaliste français[12].
-28 avril : Johann Friedrich Struensee (né en 1737), médecin et homme politique danois d'origine allemande[13].
-18 juin : Gerard van Swieten (né en 1700), médecin autrichien[14].
-15 novembre : Johann Christian Senckenberg (né en 1707), médecin et scientifique allemand[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3 janvier : Antoine Le Camus (né en 1722), philosophe, médecin, auteur et journaliste français.
+28 avril : Johann Friedrich Struensee (né en 1737), médecin et homme politique danois d'origine allemande.
+18 juin : Gerard van Swieten (né en 1700), médecin autrichien.
+15 novembre : Johann Christian Senckenberg (né en 1707), médecin et scientifique allemand.</t>
         </is>
       </c>
     </row>
